--- a/ExcelOperations/file_changed.xlsx
+++ b/ExcelOperations/file_changed.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new sheet" sheetId="2" r:id="R61d79f82323c4807"/>
+    <sheet name="new sheet" sheetId="2" r:id="Raa530bc762624c12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>df, sdfsf, dd</t>
   </si>
   <si>
     <t>Test value in A1 cell</t>
@@ -409,7 +412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -478,6 +481,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2">
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -495,7 +503,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelOperations/file_changed.xlsx
+++ b/ExcelOperations/file_changed.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="new sheet" sheetId="2" r:id="Raa530bc762624c12"/>
+    <sheet name="new sheet" sheetId="2" r:id="R71f46f0889564aca"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -65,7 +65,7 @@
     <t>Country</t>
   </si>
   <si>
-    <t>df, sdfsf, dd</t>
+    <t>Hello World!</t>
   </si>
   <si>
     <t>Test value in A1 cell</t>
